--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_12.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_12.xlsx
@@ -512,389 +512,389 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997339418003747</v>
+        <v>0.9362268805522641</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8256930652764086</v>
+        <v>0.7417395754075038</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8155605513105317</v>
+        <v>0.661017903137582</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9986435943564302</v>
+        <v>0.9370181478384445</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00110747435885178</v>
+        <v>0.2654573122415022</v>
       </c>
       <c r="G2" t="n">
-        <v>1.16559127510629</v>
+        <v>1.726988648429932</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6597292135485304</v>
+        <v>1.212519305165569</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001579512767749464</v>
+        <v>0.2445960961941191</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07562732643464232</v>
+        <v>1.405737373733147</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03327873733860377</v>
+        <v>0.5152254964978947</v>
       </c>
       <c r="L2" t="n">
-        <v>1.017027724776021</v>
+        <v>0.9131600075605298</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03380284418515408</v>
+        <v>0.523339783031194</v>
       </c>
       <c r="N2" t="n">
-        <v>143.6113464171826</v>
+        <v>36.65260246748984</v>
       </c>
       <c r="O2" t="n">
-        <v>284.946518960399</v>
+        <v>73.61718605571566</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_7</t>
+          <t>model_1_12_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997285697441723</v>
+        <v>0.9362438590351301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.825650959072244</v>
+        <v>0.7416363373299197</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8150242738377209</v>
+        <v>0.6608830267250485</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9987819337156362</v>
+        <v>0.9372110208465279</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001129835686210761</v>
+        <v>0.2653866388533006</v>
       </c>
       <c r="G3" t="n">
-        <v>1.16587283948742</v>
+        <v>1.727679001930104</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6616474469736201</v>
+        <v>1.213001750272618</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001418418787358036</v>
+        <v>0.24384705526853</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07637816463634679</v>
+        <v>1.404279662264391</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03361302851887585</v>
+        <v>0.5151569070228027</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01737153637297</v>
+        <v>0.9131831271967729</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03414240011734687</v>
+        <v>0.5232701133404335</v>
       </c>
       <c r="N3" t="n">
-        <v>143.5713661345279</v>
+        <v>36.65313500356545</v>
       </c>
       <c r="O3" t="n">
-        <v>284.9065386777443</v>
+        <v>73.61771859179127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_3</t>
+          <t>model_1_12_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997230436184728</v>
+        <v>0.9363582387587116</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8256112136804429</v>
+        <v>0.7409728354927343</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8148913032833789</v>
+        <v>0.6598952167762144</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9989296641942924</v>
+        <v>0.9385812759902502</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001152838331965448</v>
+        <v>0.2649105302003164</v>
       </c>
       <c r="G4" t="n">
-        <v>1.166138617105405</v>
+        <v>1.732115841770508</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6621230749364261</v>
+        <v>1.216535089183086</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001246388997944085</v>
+        <v>0.2385255372845133</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07373045606452719</v>
+        <v>1.393796631980484</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03395347304717808</v>
+        <v>0.514694598961672</v>
       </c>
       <c r="L4" t="n">
-        <v>1.017725208417744</v>
+        <v>0.9133388783097349</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03448820630665018</v>
+        <v>0.5228005243894785</v>
       </c>
       <c r="N4" t="n">
-        <v>143.5310565252946</v>
+        <v>36.65672626377723</v>
       </c>
       <c r="O4" t="n">
-        <v>284.866229068511</v>
+        <v>73.62130985200305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_8</t>
+          <t>model_1_12_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997260001865421</v>
+        <v>0.9363738186350881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8256060728834104</v>
+        <v>0.7408068982962259</v>
       </c>
       <c r="D5" t="n">
-        <v>0.815227535350273</v>
+        <v>0.6597476558110515</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9986740367782929</v>
+        <v>0.9387798436455633</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001140531538445512</v>
+        <v>0.264845678548966</v>
       </c>
       <c r="G5" t="n">
-        <v>1.166172993638832</v>
+        <v>1.73322546456763</v>
       </c>
       <c r="H5" t="n">
-        <v>0.660920392329001</v>
+        <v>1.217062906199397</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001544063052362959</v>
+        <v>0.2377543806472738</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0770456756607811</v>
+        <v>1.392266913798512</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03377175651999038</v>
+        <v>0.5146315949773838</v>
       </c>
       <c r="L5" t="n">
-        <v>1.017535988061304</v>
+        <v>0.9133600934605455</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03430362792580915</v>
+        <v>0.5227365281554187</v>
       </c>
       <c r="N5" t="n">
-        <v>143.5525217268953</v>
+        <v>36.65721593544584</v>
       </c>
       <c r="O5" t="n">
-        <v>284.8876942701118</v>
+        <v>73.62179952367167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_4</t>
+          <t>model_1_12_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997236634297039</v>
+        <v>0.9365413314958165</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8255997621674842</v>
+        <v>0.7396218045532065</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8147961630258734</v>
+        <v>0.657833534006353</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9988880165275933</v>
+        <v>0.9412149408757907</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001150258351168803</v>
+        <v>0.264148401794121</v>
       </c>
       <c r="G6" t="n">
-        <v>1.166215193425289</v>
+        <v>1.741150191884056</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6624633861209737</v>
+        <v>1.223909608907644</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001294887042470854</v>
+        <v>0.2282974457378509</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07391867415478748</v>
+        <v>1.373002443932412</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03391545888188457</v>
+        <v>0.5139536961576607</v>
       </c>
       <c r="L6" t="n">
-        <v>1.017685540498952</v>
+        <v>0.9135881960794098</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03444959345625353</v>
+        <v>0.5220479531069351</v>
       </c>
       <c r="N6" t="n">
-        <v>143.5355374172949</v>
+        <v>36.6624884115251</v>
       </c>
       <c r="O6" t="n">
-        <v>284.8707099605113</v>
+        <v>73.62707199975092</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_6</t>
+          <t>model_1_12_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997278224217623</v>
+        <v>0.9365650625308614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8255952798664559</v>
+        <v>0.739261726871115</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8148757936917528</v>
+        <v>0.657487224520203</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9988304313534654</v>
+        <v>0.941629492748455</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001132946435693694</v>
+        <v>0.2640496207272032</v>
       </c>
       <c r="G7" t="n">
-        <v>1.166245166592904</v>
+        <v>1.743558033002207</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6621785518463746</v>
+        <v>1.225148337859425</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001361944060553326</v>
+        <v>0.2266874935652226</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0755691576616792</v>
+        <v>1.369623700412474</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03365926968449694</v>
+        <v>0.5138575879825102</v>
       </c>
       <c r="L7" t="n">
-        <v>1.017419365007214</v>
+        <v>0.9136205106803219</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03418936953510228</v>
+        <v>0.521950331324099</v>
       </c>
       <c r="N7" t="n">
-        <v>143.5658671491638</v>
+        <v>36.66323647239514</v>
       </c>
       <c r="O7" t="n">
-        <v>284.9010396923802</v>
+        <v>73.62782006062096</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_2</t>
+          <t>model_1_12_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997209345852082</v>
+        <v>0.9366180175119583</v>
       </c>
       <c r="C8" t="n">
-        <v>0.825573195575714</v>
+        <v>0.7386001815747983</v>
       </c>
       <c r="D8" t="n">
-        <v>0.814821833345668</v>
+        <v>0.6565842353181367</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9989607552225909</v>
+        <v>0.9426751811357218</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001161617239233693</v>
+        <v>0.2638291942046569</v>
       </c>
       <c r="G8" t="n">
-        <v>1.166392844346784</v>
+        <v>1.747981789444813</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6623715648755193</v>
+        <v>1.228378277876894</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001210183990693684</v>
+        <v>0.2226264618777946</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07308784747856868</v>
+        <v>1.361558923052362</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03408250635199372</v>
+        <v>0.5136430610887847</v>
       </c>
       <c r="L8" t="n">
-        <v>1.017860186546677</v>
+        <v>0.9136926195907517</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0346192717570307</v>
+        <v>0.5217324258462454</v>
       </c>
       <c r="N8" t="n">
-        <v>143.5158841461316</v>
+        <v>36.66490675374853</v>
       </c>
       <c r="O8" t="n">
-        <v>284.851056689348</v>
+        <v>73.62949034197435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_5</t>
+          <t>model_1_12_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999724873739526</v>
+        <v>0.9366529952670296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8255705005624796</v>
+        <v>0.7381023366581062</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8148335735642714</v>
+        <v>0.6558212500444536</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9988534518196988</v>
+        <v>0.9435207450666487</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001145220404222881</v>
+        <v>0.2636835983653772</v>
       </c>
       <c r="G9" t="n">
-        <v>1.166410865912691</v>
+        <v>1.751310880695098</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6623295707943119</v>
+        <v>1.231107431960431</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001335137094283742</v>
+        <v>0.2193426328145152</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07492208596208982</v>
+        <v>1.355002475263464</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03384110524529128</v>
+        <v>0.5135013129149498</v>
       </c>
       <c r="L9" t="n">
-        <v>1.017608080670335</v>
+        <v>0.9137402488742531</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03437406882421026</v>
+        <v>0.521588445280369</v>
       </c>
       <c r="N9" t="n">
-        <v>143.5443163354584</v>
+        <v>36.66601077128158</v>
       </c>
       <c r="O9" t="n">
-        <v>284.8794888786748</v>
+        <v>73.6305943595074</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997086696656494</v>
+        <v>0.9366605836936196</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8253865859801983</v>
+        <v>0.7379991602629352</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8152785551478542</v>
+        <v>0.6556245798080953</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992120441645511</v>
+        <v>0.943733220052373</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001212670294331491</v>
+        <v>0.2636520113371097</v>
       </c>
       <c r="G10" t="n">
-        <v>1.167640703571255</v>
+        <v>1.75200082172469</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6607378974713508</v>
+        <v>1.231810909992289</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000917562020192447</v>
+        <v>0.2185174657185436</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06658039471797533</v>
+        <v>1.353333498287228</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03482341589120014</v>
+        <v>0.5134705554723753</v>
       </c>
       <c r="L10" t="n">
-        <v>1.018645141398437</v>
+        <v>0.9137505820508862</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0353718498808418</v>
+        <v>0.5215572034388201</v>
       </c>
       <c r="N10" t="n">
-        <v>143.429860992163</v>
+        <v>36.66625036843925</v>
       </c>
       <c r="O10" t="n">
-        <v>284.7650335353794</v>
+        <v>73.63083395666507</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997057950391581</v>
+        <v>0.936667643154335</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8253721336379589</v>
+        <v>0.7377792409632213</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8152477557823617</v>
+        <v>0.6554253398777306</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992400341609637</v>
+        <v>0.9439460507589429</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001224636003845013</v>
+        <v>0.2636226261434164</v>
       </c>
       <c r="G11" t="n">
-        <v>1.167737346450357</v>
+        <v>1.753471423094512</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6608480650158675</v>
+        <v>1.232523579670609</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0008849681151813457</v>
+        <v>0.217690917146366</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06691562366471646</v>
+        <v>1.35165347332083</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0349947996685938</v>
+        <v>0.5134419403821783</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01882911749388</v>
+        <v>0.9137601949335626</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03554593278140847</v>
+        <v>0.521528137689557</v>
       </c>
       <c r="N11" t="n">
-        <v>143.4102232377171</v>
+        <v>36.66647328979093</v>
       </c>
       <c r="O11" t="n">
-        <v>284.7453957809335</v>
+        <v>73.63105687801675</v>
       </c>
     </row>
   </sheetData>
